--- a/s2robot/src/test/resources/extractor/msoffice/test.xlsx
+++ b/s2robot/src/test/resources/extractor/msoffice/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -67,11 +67,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -145,6 +150,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -179,6 +185,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -354,7 +361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -375,7 +382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -389,7 +396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
